--- a/Responsibility Assignment Matrix.xlsx
+++ b/Responsibility Assignment Matrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merve\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa Erdogan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
   <si>
     <t>RAM</t>
   </si>
@@ -32,21 +32,12 @@
     <t>Büşra Öziş</t>
   </si>
   <si>
-    <t>Deniz Çelik</t>
-  </si>
-  <si>
     <t>Doğukan Ocak</t>
   </si>
   <si>
     <t>Mehmet Özdemir</t>
   </si>
   <si>
-    <t>Melih Barsbey</t>
-  </si>
-  <si>
-    <t>Merve Cerit</t>
-  </si>
-  <si>
     <t>Özgür Akyazı</t>
   </si>
   <si>
@@ -56,27 +47,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>User Stories</t>
-  </si>
-  <si>
-    <t>Themes/Features</t>
-  </si>
-  <si>
-    <t>Domain Analysis</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
-    <t>Use-Case Model</t>
-  </si>
-  <si>
     <t>Object Model</t>
   </si>
   <si>
@@ -158,15 +128,9 @@
     <t>C,R</t>
   </si>
   <si>
-    <t>C,L,R,A</t>
-  </si>
-  <si>
     <t>L,A</t>
   </si>
   <si>
-    <t>A,L,C</t>
-  </si>
-  <si>
     <t>S,C,R</t>
   </si>
   <si>
@@ -176,18 +140,9 @@
     <t>C,R,A,L</t>
   </si>
   <si>
-    <t>C,R,L</t>
-  </si>
-  <si>
-    <t>C,R,S</t>
-  </si>
-  <si>
     <t>A,S</t>
   </si>
   <si>
-    <t>S,C,A</t>
-  </si>
-  <si>
     <t>C,A</t>
   </si>
   <si>
@@ -219,12 +174,21 @@
   </si>
   <si>
     <t>R,S</t>
+  </si>
+  <si>
+    <t>Sinan Harputluoğlu</t>
+  </si>
+  <si>
+    <t>Bulut Tekelioğlu</t>
+  </si>
+  <si>
+    <t>Emrah Küçük</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +274,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -333,7 +297,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -351,8 +315,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I22" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:I22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:I15">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -364,13 +328,13 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="RAM" dataDxfId="3"/>
+    <tableColumn id="1" name="RAM" dataDxfId="2"/>
     <tableColumn id="2" name="Büşra Öziş" dataDxfId="1"/>
-    <tableColumn id="3" name="Deniz Çelik" dataDxfId="0"/>
+    <tableColumn id="3" name="Sinan Harputluoğlu" dataDxfId="0"/>
     <tableColumn id="4" name="Doğukan Ocak"/>
     <tableColumn id="5" name="Mehmet Özdemir"/>
-    <tableColumn id="6" name="Melih Barsbey"/>
-    <tableColumn id="7" name="Merve Cerit"/>
+    <tableColumn id="6" name="Bulut Tekelioğlu"/>
+    <tableColumn id="7" name="Emrah Küçük"/>
     <tableColumn id="8" name="Mustafa Erdoğan"/>
     <tableColumn id="9" name="Özgür Akyazı"/>
   </tableColumns>
@@ -379,7 +343,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="K1:L6" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="K2:L7" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -389,7 +353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,6 +428,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -499,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,25 +649,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -680,674 +678,471 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
